--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Excelltronic Electronics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>N</t>
   </si>
@@ -69,65 +69,16 @@
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>P =  D'C'A'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,55 +100,20 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -216,63 +132,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Input" xfId="4" builtinId="20"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -551,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:AB32"/>
+  <dimension ref="C3:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +443,7 @@
     <col min="22" max="22" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
@@ -602,20 +483,8 @@
       <c r="O3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>15</v>
-      </c>
-      <c r="W3" t="s">
-        <v>9</v>
-      </c>
-      <c r="X3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="3:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C4" s="7">
         <v>0</v>
       </c>
@@ -655,40 +524,8 @@
       <c r="O4" s="3">
         <v>0</v>
       </c>
-      <c r="P4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="W4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB4" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="3:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C5" s="7">
         <v>1</v>
       </c>
@@ -728,46 +565,8 @@
       <c r="O5" s="3">
         <v>0</v>
       </c>
-      <c r="Q5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5">
-        <f>I4</f>
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <f>I8</f>
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <f>I16</f>
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <f>I12</f>
-        <v>1</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y5" s="13">
-        <f>L4</f>
-        <v>1</v>
-      </c>
-      <c r="Z5" s="3">
-        <f>L8</f>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="13">
-        <f>L16</f>
-        <v>1</v>
-      </c>
-      <c r="AB5" s="13">
-        <f>L12</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="3:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="7">
         <v>2</v>
       </c>
@@ -807,46 +606,8 @@
       <c r="O6" s="3">
         <v>1</v>
       </c>
-      <c r="Q6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="R6">
-        <f>I5</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="17">
-        <f>I9</f>
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <f>I17</f>
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <f>I13</f>
-        <v>1</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y6" s="3">
-        <f>L5</f>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="14">
-        <f>L9</f>
-        <v>1</v>
-      </c>
-      <c r="AA6" s="14">
-        <f>L17</f>
-        <v>1</v>
-      </c>
-      <c r="AB6" s="3">
-        <f>L13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="3:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7" s="7">
         <v>3</v>
       </c>
@@ -886,46 +647,8 @@
       <c r="O7" s="3">
         <v>1</v>
       </c>
-      <c r="Q7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="R7" s="16">
-        <f>I7</f>
-        <v>1</v>
-      </c>
-      <c r="S7" s="17">
-        <f>I11</f>
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <f>I19</f>
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <f>I15</f>
-        <v>0</v>
-      </c>
-      <c r="X7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y7" s="12">
-        <f>L7</f>
-        <v>1</v>
-      </c>
-      <c r="Z7" s="3">
-        <f>L11</f>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="3">
-        <f>L19</f>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="12">
-        <f>L15</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="3:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C8" s="7">
         <v>4</v>
       </c>
@@ -965,46 +688,8 @@
       <c r="O8" s="3">
         <v>1</v>
       </c>
-      <c r="Q8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" s="18">
-        <f>I6</f>
-        <v>1</v>
-      </c>
-      <c r="S8" s="18">
-        <f>I10</f>
-        <v>1</v>
-      </c>
-      <c r="T8" s="18">
-        <f>I18</f>
-        <v>1</v>
-      </c>
-      <c r="U8" s="18">
-        <f>I14</f>
-        <v>1</v>
-      </c>
-      <c r="X8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y8" s="15">
-        <f>L6</f>
-        <v>1</v>
-      </c>
-      <c r="Z8" s="15">
-        <f>L10</f>
-        <v>1</v>
-      </c>
-      <c r="AA8" s="15">
-        <f>L18</f>
-        <v>1</v>
-      </c>
-      <c r="AB8" s="3">
-        <f>L14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C9" s="7">
         <v>5</v>
       </c>
@@ -1044,12 +729,8 @@
       <c r="O9" s="3">
         <v>1</v>
       </c>
-      <c r="P9" s="11"/>
-      <c r="V9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="3:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="7">
         <v>6</v>
       </c>
@@ -1090,7 +771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="7">
         <v>7</v>
       </c>
@@ -1130,20 +811,8 @@
       <c r="O11" s="3">
         <v>0</v>
       </c>
-      <c r="P11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>15</v>
-      </c>
-      <c r="W11" t="s">
-        <v>10</v>
-      </c>
-      <c r="X11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="3:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C12" s="7">
         <v>8</v>
       </c>
@@ -1151,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="5">
         <v>0</v>
@@ -1183,40 +852,8 @@
       <c r="O12" s="3">
         <v>1</v>
       </c>
-      <c r="P12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="S12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="T12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="U12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="W12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB12" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="3:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C13" s="7">
         <v>9</v>
       </c>
@@ -1224,7 +861,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="5">
         <v>0</v>
@@ -1256,46 +893,8 @@
       <c r="O13" s="3">
         <v>1</v>
       </c>
-      <c r="Q13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="R13" s="13">
-        <f>J4</f>
-        <v>1</v>
-      </c>
-      <c r="S13" s="12">
-        <f>J8</f>
-        <v>1</v>
-      </c>
-      <c r="T13" s="3">
-        <f>J16</f>
-        <v>0</v>
-      </c>
-      <c r="U13" s="15">
-        <f>J12</f>
-        <v>1</v>
-      </c>
-      <c r="X13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y13" s="14">
-        <f>M4</f>
-        <v>1</v>
-      </c>
-      <c r="Z13" s="3">
-        <f>M8</f>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="12">
-        <f>M16</f>
-        <v>1</v>
-      </c>
-      <c r="AB13" s="14">
-        <f>M12</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="3:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14" s="7">
         <v>10</v>
       </c>
@@ -1303,7 +902,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="5">
         <v>0</v>
@@ -1335,46 +934,8 @@
       <c r="O14" s="3">
         <v>1</v>
       </c>
-      <c r="Q14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="R14" s="13">
-        <f>J5</f>
-        <v>1</v>
-      </c>
-      <c r="S14" s="3">
-        <f>J9</f>
-        <v>0</v>
-      </c>
-      <c r="T14" s="14">
-        <f>J17</f>
-        <v>1</v>
-      </c>
-      <c r="U14" s="15">
-        <f>J13</f>
-        <v>1</v>
-      </c>
-      <c r="X14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y14" s="3">
-        <f>M5</f>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
-        <f>M9</f>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="12">
-        <f>M17</f>
-        <v>1</v>
-      </c>
-      <c r="AB14" s="3">
-        <f>M13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C15" s="7">
         <v>11</v>
       </c>
@@ -1382,7 +943,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="5">
         <v>0</v>
@@ -1414,46 +975,8 @@
       <c r="O15" s="3">
         <v>1</v>
       </c>
-      <c r="Q15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="R15" s="13">
-        <f>J7</f>
-        <v>1</v>
-      </c>
-      <c r="S15" s="12">
-        <f>J11</f>
-        <v>1</v>
-      </c>
-      <c r="T15" s="3">
-        <f>J19</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <f>J15</f>
-        <v>0</v>
-      </c>
-      <c r="X15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y15" s="3">
-        <f>M7</f>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3">
-        <f>M11</f>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="15">
-        <f>M19</f>
-        <v>1</v>
-      </c>
-      <c r="AB15" s="15">
-        <f>M15</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="3:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C16" s="7">
         <v>12</v>
       </c>
@@ -1461,7 +984,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="5">
         <v>1</v>
@@ -1493,46 +1016,8 @@
       <c r="O16" s="3">
         <v>0</v>
       </c>
-      <c r="Q16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R16" s="13">
-        <f>J6</f>
-        <v>1</v>
-      </c>
-      <c r="S16" s="3">
-        <f>J10</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="3">
-        <f>J18</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="15">
-        <f>J14</f>
-        <v>1</v>
-      </c>
-      <c r="X16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y16" s="13">
-        <f>M6</f>
-        <v>1</v>
-      </c>
-      <c r="Z16" s="13">
-        <f>M10</f>
-        <v>1</v>
-      </c>
-      <c r="AA16" s="13">
-        <f>M18</f>
-        <v>1</v>
-      </c>
-      <c r="AB16" s="13">
-        <f>M14</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" s="7">
         <v>13</v>
       </c>
@@ -1540,7 +1025,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="5">
         <v>1</v>
@@ -1573,7 +1058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C18" s="7">
         <v>14</v>
       </c>
@@ -1581,7 +1066,7 @@
         <v>13</v>
       </c>
       <c r="E18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="5">
         <v>1</v>
@@ -1614,7 +1099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" s="7">
         <v>15</v>
       </c>
@@ -1622,7 +1107,7 @@
         <v>14</v>
       </c>
       <c r="E19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="5">
         <v>1</v>
@@ -1654,20 +1139,8 @@
       <c r="O19" s="3">
         <v>1</v>
       </c>
-      <c r="P19" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>15</v>
-      </c>
-      <c r="W19" t="s">
-        <v>11</v>
-      </c>
-      <c r="X19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1681,40 +1154,8 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="S20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="T20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="U20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="W20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB20" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1728,46 +1169,8 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="Q21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="R21" s="13">
-        <f>K4</f>
-        <v>1</v>
-      </c>
-      <c r="S21" s="13">
-        <f>K8</f>
-        <v>1</v>
-      </c>
-      <c r="T21" s="3">
-        <f>K16</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="13">
-        <f>K12</f>
-        <v>1</v>
-      </c>
-      <c r="X21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y21" s="13">
-        <f>N4</f>
-        <v>1</v>
-      </c>
-      <c r="Z21" s="13">
-        <f>N8</f>
-        <v>1</v>
-      </c>
-      <c r="AA21" s="13">
-        <f>N16</f>
-        <v>1</v>
-      </c>
-      <c r="AB21" s="13">
-        <f>N12</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1781,234 +1184,6 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="Q22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="R22" s="12">
-        <f>K5</f>
-        <v>1</v>
-      </c>
-      <c r="S22" s="12">
-        <f>K9</f>
-        <v>1</v>
-      </c>
-      <c r="T22" s="12">
-        <f>K17</f>
-        <v>1</v>
-      </c>
-      <c r="U22" s="12">
-        <f>K13</f>
-        <v>1</v>
-      </c>
-      <c r="X22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y22" s="3">
-        <f>N5</f>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="12">
-        <f>N9</f>
-        <v>1</v>
-      </c>
-      <c r="AA22" s="3">
-        <f>N17</f>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="12">
-        <f>N13</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="Q23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="R23" s="14">
-        <f>K7</f>
-        <v>1</v>
-      </c>
-      <c r="S23" s="14">
-        <f>K11</f>
-        <v>1</v>
-      </c>
-      <c r="T23" s="3">
-        <f>K19</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="14">
-        <f>K15</f>
-        <v>1</v>
-      </c>
-      <c r="X23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y23" s="3">
-        <f>N7</f>
-        <v>0</v>
-      </c>
-      <c r="Z23" s="3">
-        <f>N11</f>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="14">
-        <f>N19</f>
-        <v>1</v>
-      </c>
-      <c r="AB23" s="14">
-        <f>N15</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="Q24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R24" s="3">
-        <f>K6</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="15">
-        <f>K10</f>
-        <v>1</v>
-      </c>
-      <c r="T24" s="3">
-        <f>K18</f>
-        <v>0</v>
-      </c>
-      <c r="U24" s="15">
-        <f>K14</f>
-        <v>1</v>
-      </c>
-      <c r="X24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y24" s="3">
-        <f>N6</f>
-        <v>0</v>
-      </c>
-      <c r="Z24" s="15">
-        <f>N10</f>
-        <v>1</v>
-      </c>
-      <c r="AA24" s="15">
-        <f>N18</f>
-        <v>1</v>
-      </c>
-      <c r="AB24" s="15">
-        <f>N14</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="W27" t="s">
-        <v>12</v>
-      </c>
-      <c r="X27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="W28" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z28" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB28" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="X29" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y29" s="3">
-        <f>O4</f>
-        <v>0</v>
-      </c>
-      <c r="Z29" s="15">
-        <f>O8</f>
-        <v>1</v>
-      </c>
-      <c r="AA29" s="3">
-        <f>O16</f>
-        <v>0</v>
-      </c>
-      <c r="AB29" s="15">
-        <f>O12</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="X30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y30" s="3">
-        <f>O5</f>
-        <v>0</v>
-      </c>
-      <c r="Z30" s="14">
-        <f>O9</f>
-        <v>1</v>
-      </c>
-      <c r="AA30" s="14">
-        <f>O17</f>
-        <v>1</v>
-      </c>
-      <c r="AB30" s="14">
-        <f>O13</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="X31" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y31" s="13">
-        <f>O7</f>
-        <v>1</v>
-      </c>
-      <c r="Z31" s="3">
-        <f>O11</f>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="13">
-        <f>O19</f>
-        <v>1</v>
-      </c>
-      <c r="AB31" s="13">
-        <f>O15</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="X32" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y32" s="12">
-        <f>O6</f>
-        <v>1</v>
-      </c>
-      <c r="Z32" s="12">
-        <f>O10</f>
-        <v>1</v>
-      </c>
-      <c r="AA32" s="12">
-        <f>O18</f>
-        <v>1</v>
-      </c>
-      <c r="AB32" s="12">
-        <f>O14</f>
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
